--- a/MonsterList.xlsx
+++ b/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>class</t>
   </si>
@@ -49,18 +49,12 @@
     <t>hurtSound</t>
   </si>
   <si>
-    <t>behaviour</t>
-  </si>
-  <si>
     <t>inventory</t>
   </si>
   <si>
     <t>inventoryValue</t>
   </si>
   <si>
-    <t>guardPosition</t>
-  </si>
-  <si>
     <t>mana</t>
   </si>
   <si>
@@ -73,6 +67,15 @@
     <t>stalkDistance</t>
   </si>
   <si>
+    <t>ADN</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Xf</t>
+  </si>
+  <si>
     <t>SlowSkeleton</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Skelegoat</t>
   </si>
   <si>
+    <t>Wizard_BossL1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "Skeleton</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t xml:space="preserve"> "Skelegoat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Wizard</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 2.0</t>
   </si>
   <si>
@@ -133,61 +142,52 @@
     <t xml:space="preserve"> -0.25</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6</t>
+    <t xml:space="preserve"> "MonsterAttack2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "SnakeAttack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "BatAttack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MonsterAttack1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MonsterHurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MonsterHurt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "GoldCoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MagicSkill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0</t>
   </si>
   <si>
     <t xml:space="preserve"> 3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2</t>
+    <t xml:space="preserve"> true</t>
   </si>
   <si>
     <t xml:space="preserve"> 4</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MonsterAttack2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "SnakeAttack</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "BatAttack</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MonsterHurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MonsterHurt2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> new</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "GoldCoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> null</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> true</t>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -545,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,284 +609,385 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>0.625</v>
+      </c>
+      <c r="U2">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>0.8</v>
+      </c>
+      <c r="U3">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>0.7</v>
+      </c>
+      <c r="U6">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7">
+        <v>11</v>
+      </c>
+      <c r="T7">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="U7">
+        <v>0.9523809523809523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
         <v>42</v>
       </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
         <v>53</v>
       </c>
-      <c r="N2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" t="s">
-        <v>57</v>
-      </c>
-      <c r="S7" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" t="s">
-        <v>43</v>
+      <c r="S8">
+        <v>25</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/MonsterList.xlsx
+++ b/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>class</t>
   </si>
@@ -79,6 +79,9 @@
     <t>SlowSkeleton</t>
   </si>
   <si>
+    <t>LittleSkelly</t>
+  </si>
+  <si>
     <t>GreenSnake</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t xml:space="preserve"> "Skeleton</t>
   </si>
   <si>
+    <t xml:space="preserve"> "LittleSkelly</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "GreenSnake</t>
   </si>
   <si>
@@ -145,6 +151,9 @@
     <t xml:space="preserve"> "MonsterAttack2</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MonsterAttack</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "SnakeAttack</t>
   </si>
   <si>
@@ -154,12 +163,21 @@
     <t xml:space="preserve"> "MonsterAttack1</t>
   </si>
   <si>
+    <t xml:space="preserve"> "HumanAttack1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MonsterHurt</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MonsterHurt3</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MonsterHurt2</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Ow</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "GoldCoin</t>
   </si>
   <si>
@@ -167,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12</t>
   </si>
   <si>
     <t xml:space="preserve"> 15</t>
@@ -545,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,16 +639,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -645,16 +666,16 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S2">
         <v>8</v>
@@ -671,46 +692,52 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T3">
-        <v>0.8</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="U3">
-        <v>0.4444444444444444</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -718,46 +745,46 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="U4">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -765,46 +792,46 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>57</v>
+      <c r="T5">
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -812,52 +839,46 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S6">
-        <v>10</v>
-      </c>
-      <c r="T6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>64</v>
       </c>
       <c r="U6">
-        <v>0.3888888888888889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -865,64 +886,52 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7">
         <v>10</v>
       </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7">
-        <v>11</v>
-      </c>
       <c r="T7">
-        <v>1.818181818181818</v>
+        <v>0.7</v>
       </c>
       <c r="U7">
-        <v>0.9523809523809523</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -930,63 +939,128 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8">
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8">
+        <v>11</v>
+      </c>
+      <c r="T8">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="U8">
+        <v>0.9523809523809523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>25</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>10</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>100</v>
       </c>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="K9" t="s">
         <v>49</v>
       </c>
-      <c r="N8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" t="s">
-        <v>54</v>
-      </c>
-      <c r="R8" t="s">
-        <v>53</v>
-      </c>
-      <c r="S8">
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9">
         <v>25</v>
       </c>
-      <c r="T8">
+      <c r="T9">
         <v>4</v>
       </c>
-      <c r="U8">
+      <c r="U9">
         <v>2</v>
       </c>
     </row>

--- a/MonsterList.xlsx
+++ b/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
   <si>
     <t>class</t>
   </si>
@@ -100,6 +100,18 @@
     <t>Wizard_BossL1</t>
   </si>
   <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Skeletona</t>
+  </si>
+  <si>
+    <t>Sorceress_BossL2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "Skeleton</t>
   </si>
   <si>
@@ -124,6 +136,15 @@
     <t xml:space="preserve"> "Wizard</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Skeletona</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Sorceress</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 2.0</t>
   </si>
   <si>
@@ -133,6 +154,15 @@
     <t xml:space="preserve"> 3.0</t>
   </si>
   <si>
+    <t xml:space="preserve"> 3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 25</t>
   </si>
   <si>
@@ -151,7 +181,7 @@
     <t xml:space="preserve"> "MonsterAttack2</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterAttack</t>
+    <t xml:space="preserve"> "MonsterAttack1</t>
   </si>
   <si>
     <t xml:space="preserve"> "SnakeAttack</t>
@@ -160,9 +190,6 @@
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterAttack1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "HumanAttack1</t>
   </si>
   <si>
@@ -178,6 +205,9 @@
     <t xml:space="preserve"> "Ow</t>
   </si>
   <si>
+    <t xml:space="preserve"> "PainSqueek</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "GoldCoin</t>
   </si>
   <si>
@@ -196,6 +226,9 @@
     <t xml:space="preserve"> 0</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 3</t>
   </si>
   <si>
@@ -206,6 +239,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6</t>
   </si>
   <si>
     <t>inf</t>
@@ -566,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,16 +675,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -666,16 +702,16 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="S2">
         <v>8</v>
@@ -692,16 +728,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>9</v>
@@ -719,16 +755,16 @@
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="S3">
         <v>13</v>
@@ -745,16 +781,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -772,10 +808,10 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="S4">
         <v>5</v>
@@ -792,16 +828,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -819,10 +855,10 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -839,16 +875,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -866,16 +902,16 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -886,16 +922,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -913,16 +949,16 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="S7">
         <v>10</v>
@@ -939,16 +975,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -966,28 +1002,28 @@
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="Q8" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="S8">
         <v>11</v>
@@ -1004,16 +1040,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1031,28 +1067,28 @@
         <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="Q9" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="S9">
         <v>25</v>
@@ -1062,6 +1098,242 @@
       </c>
       <c r="U9">
         <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>71</v>
+      </c>
+      <c r="S10">
+        <v>25</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12">
+        <v>20</v>
+      </c>
+      <c r="T12">
+        <v>1.25</v>
+      </c>
+      <c r="U12">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13">
+        <v>45</v>
+      </c>
+      <c r="T13">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="U13">
+        <v>1.578947368421053</v>
       </c>
     </row>
   </sheetData>

--- a/MonsterList.xlsx
+++ b/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="125">
   <si>
     <t>class</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Xf</t>
   </si>
   <si>
+    <t>SlowSkeletonTest</t>
+  </si>
+  <si>
     <t>SlowSkeleton</t>
   </si>
   <si>
@@ -112,6 +115,57 @@
     <t>Sorceress_BossL2</t>
   </si>
   <si>
+    <t>SmallEvilBat</t>
+  </si>
+  <si>
+    <t>Sorceress</t>
+  </si>
+  <si>
+    <t>Aunt</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>SkeletonMajor</t>
+  </si>
+  <si>
+    <t>LittleOrc</t>
+  </si>
+  <si>
+    <t>RoomFairy</t>
+  </si>
+  <si>
+    <t>BlackGhost_BossL4</t>
+  </si>
+  <si>
+    <t>RoomBlackGhost</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>RedBat</t>
+  </si>
+  <si>
+    <t>Badger</t>
+  </si>
+  <si>
+    <t>Scary</t>
+  </si>
+  <si>
+    <t>ZombieGirl</t>
+  </si>
+  <si>
+    <t>Flamy_BossL5</t>
+  </si>
+  <si>
+    <t>WhiteWolf</t>
+  </si>
+  <si>
+    <t>SkeletonGeneral</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "Skeleton</t>
   </si>
   <si>
@@ -145,6 +199,48 @@
     <t xml:space="preserve"> "Sorceress</t>
   </si>
   <si>
+    <t xml:space="preserve"> "SmallEvilBat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Aunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Spider</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "SkeletonMajor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "LittleOrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "BlackGhost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "RedBat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Badger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Scary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ZombieGirl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Flamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "WhiteWolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "SkeletonGeneral</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 2.0</t>
   </si>
   <si>
@@ -163,6 +259,30 @@
     <t xml:space="preserve"> 1.5</t>
   </si>
   <si>
+    <t xml:space="preserve"> 3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 25</t>
   </si>
   <si>
@@ -178,6 +298,9 @@
     <t xml:space="preserve"> -0.25</t>
   </si>
   <si>
+    <t xml:space="preserve"> -0.20</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MonsterAttack2</t>
   </si>
   <si>
@@ -208,12 +331,27 @@
     <t xml:space="preserve"> "PainSqueek</t>
   </si>
   <si>
+    <t xml:space="preserve"> "DeathPain1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "SwordSkill</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "GoldCoin</t>
   </si>
   <si>
     <t xml:space="preserve"> "MagicSkill</t>
   </si>
   <si>
+    <t xml:space="preserve"> "ShieldSkill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ManaStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 10</t>
   </si>
   <si>
@@ -223,22 +361,28 @@
     <t xml:space="preserve"> 15</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 50</t>
   </si>
   <si>
+    <t xml:space="preserve"> 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 3</t>
   </si>
   <si>
     <t xml:space="preserve"> 5</t>
   </si>
   <si>
+    <t xml:space="preserve"> 4</t>
+  </si>
+  <si>
     <t xml:space="preserve"> true</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4</t>
   </si>
   <si>
     <t xml:space="preserve"> 6</t>
@@ -602,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,16 +819,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -702,16 +846,16 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="S2">
         <v>8</v>
@@ -728,52 +872,52 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="S3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T3">
-        <v>1.153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="U3">
-        <v>0.6521739130434783</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -781,46 +925,52 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>101</v>
+      </c>
+      <c r="M4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" t="s">
+        <v>113</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T4">
-        <v>0.8</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="U4">
-        <v>0.4444444444444444</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -828,46 +978,46 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="U5">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -875,46 +1025,46 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>76</v>
+      <c r="T6">
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -922,52 +1072,46 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="S7">
-        <v>10</v>
-      </c>
-      <c r="T7">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>124</v>
       </c>
       <c r="U7">
-        <v>0.3888888888888889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -975,64 +1119,52 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" t="s">
-        <v>72</v>
-      </c>
-      <c r="S8">
-        <v>11</v>
-      </c>
       <c r="T8">
-        <v>1.818181818181818</v>
+        <v>0.7</v>
       </c>
       <c r="U8">
-        <v>0.9523809523809523</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1040,64 +1172,64 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>25</v>
-      </c>
       <c r="I9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="P9" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="R9" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="S9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1105,16 +1237,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1129,40 +1261,40 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="P10" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="Q10" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="R10" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="S10">
         <v>25</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1170,52 +1302,64 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" t="s">
+        <v>119</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1223,22 +1367,22 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>20</v>
@@ -1247,28 +1391,28 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="N12" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="S12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T12">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1276,64 +1420,1090 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" t="s">
+        <v>91</v>
+      </c>
+      <c r="S13">
+        <v>20</v>
+      </c>
+      <c r="T13">
+        <v>1.25</v>
+      </c>
+      <c r="U13">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O14" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" t="s">
+        <v>119</v>
+      </c>
+      <c r="S14">
+        <v>39</v>
+      </c>
+      <c r="T14">
+        <v>3.846153846153846</v>
+      </c>
+      <c r="U14">
+        <v>2.027027027027027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15">
+        <v>19</v>
+      </c>
+      <c r="T15">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="U15">
+        <v>0.4411764705882353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" t="s">
+        <v>119</v>
+      </c>
+      <c r="S16">
+        <v>39</v>
+      </c>
+      <c r="T16">
+        <v>1.282051282051282</v>
+      </c>
+      <c r="U16">
+        <v>0.6756756756756757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>25</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" t="s">
+        <v>90</v>
+      </c>
+      <c r="S17">
+        <v>23</v>
+      </c>
+      <c r="T17">
+        <v>1.08695652173913</v>
+      </c>
+      <c r="U17">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" t="s">
+        <v>90</v>
+      </c>
+      <c r="S18">
+        <v>35</v>
+      </c>
+      <c r="T18">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U18">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>33</v>
+      </c>
+      <c r="K19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" t="s">
+        <v>91</v>
+      </c>
+      <c r="S19">
+        <v>32</v>
+      </c>
+      <c r="T19">
+        <v>1.03125</v>
+      </c>
+      <c r="U19">
+        <v>0.5789473684210527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>40</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" t="s">
+        <v>107</v>
+      </c>
+      <c r="N20" t="s">
+        <v>116</v>
+      </c>
+      <c r="S20">
+        <v>35</v>
+      </c>
+      <c r="T20">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="U20">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>60</v>
+      </c>
+      <c r="K21" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>120</v>
+      </c>
+      <c r="R21" t="s">
+        <v>121</v>
+      </c>
+      <c r="S21">
+        <v>45</v>
+      </c>
+      <c r="T21">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="U21">
+        <v>0.7058823529411765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>40</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>250</v>
+      </c>
+      <c r="K22" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" t="s">
+        <v>111</v>
+      </c>
+      <c r="O22" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>120</v>
+      </c>
+      <c r="R22" t="s">
+        <v>119</v>
+      </c>
+      <c r="S22">
+        <v>68</v>
+      </c>
+      <c r="T22">
+        <v>3.676470588235294</v>
+      </c>
+      <c r="U22">
+        <v>2.314814814814815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>25</v>
+      </c>
+      <c r="J23">
+        <v>250</v>
+      </c>
+      <c r="K23" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23" t="s">
+        <v>105</v>
+      </c>
+      <c r="M23" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" t="s">
+        <v>119</v>
+      </c>
+      <c r="S23">
+        <v>68</v>
+      </c>
+      <c r="T23">
+        <v>3.676470588235294</v>
+      </c>
+      <c r="U23">
+        <v>2.314814814814815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>60</v>
+      </c>
+      <c r="K24" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" t="s">
+        <v>103</v>
+      </c>
+      <c r="M24" t="s">
+        <v>107</v>
+      </c>
+      <c r="N24" t="s">
+        <v>115</v>
+      </c>
+      <c r="O24" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>121</v>
+      </c>
+      <c r="R24" t="s">
+        <v>120</v>
+      </c>
+      <c r="S24">
+        <v>45</v>
+      </c>
+      <c r="T24">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="U24">
+        <v>0.7058823529411765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" t="s">
+        <v>98</v>
+      </c>
+      <c r="S25">
+        <v>28</v>
+      </c>
+      <c r="T25">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U25">
+        <v>0.3773584905660378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>42</v>
+      </c>
+      <c r="K26" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" t="s">
+        <v>104</v>
+      </c>
+      <c r="M26" t="s">
+        <v>107</v>
+      </c>
+      <c r="N26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S26">
+        <v>44</v>
+      </c>
+      <c r="T26">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="U26">
+        <v>0.5675675675675675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>35</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>65</v>
+      </c>
+      <c r="K27" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27" t="s">
+        <v>107</v>
+      </c>
+      <c r="N27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O27" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>121</v>
+      </c>
+      <c r="R27" t="s">
+        <v>120</v>
+      </c>
+      <c r="S27">
+        <v>56</v>
+      </c>
+      <c r="T27">
+        <v>1.160714285714286</v>
+      </c>
+      <c r="U27">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28">
+        <v>22</v>
+      </c>
+      <c r="G28">
+        <v>17</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>45</v>
+      </c>
+      <c r="K28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" t="s">
+        <v>107</v>
+      </c>
+      <c r="N28" t="s">
+        <v>118</v>
+      </c>
+      <c r="S28">
+        <v>39</v>
+      </c>
+      <c r="T28">
+        <v>1.153846153846154</v>
+      </c>
+      <c r="U28">
+        <v>0.6521739130434783</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>22</v>
+      </c>
+      <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="I29">
+        <v>30</v>
+      </c>
+      <c r="J29">
+        <v>300</v>
+      </c>
+      <c r="K29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" t="s">
+        <v>110</v>
+      </c>
+      <c r="N29" t="s">
+        <v>111</v>
+      </c>
+      <c r="O29" t="s">
+        <v>120</v>
+      </c>
+      <c r="P29" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>120</v>
+      </c>
+      <c r="R29" t="s">
+        <v>121</v>
+      </c>
+      <c r="S29">
+        <v>82</v>
+      </c>
+      <c r="T29">
+        <v>3.658536585365854</v>
+      </c>
+      <c r="U29">
+        <v>2.272727272727273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>50</v>
+      </c>
+      <c r="K30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" t="s">
+        <v>104</v>
+      </c>
+      <c r="M30" t="s">
+        <v>107</v>
+      </c>
+      <c r="N30" t="s">
+        <v>91</v>
+      </c>
+      <c r="S30">
+        <v>50</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <v>26</v>
+      </c>
+      <c r="G31">
         <v>20</v>
       </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13">
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>50</v>
       </c>
-      <c r="I13">
-        <v>15</v>
-      </c>
-      <c r="J13">
-        <v>150</v>
-      </c>
-      <c r="K13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" t="s">
-        <v>72</v>
-      </c>
-      <c r="P13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>72</v>
-      </c>
-      <c r="R13" t="s">
-        <v>71</v>
-      </c>
-      <c r="S13">
-        <v>45</v>
-      </c>
-      <c r="T13">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="U13">
-        <v>1.578947368421053</v>
+      <c r="K31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" t="s">
+        <v>101</v>
+      </c>
+      <c r="M31" t="s">
+        <v>107</v>
+      </c>
+      <c r="N31" t="s">
+        <v>118</v>
+      </c>
+      <c r="S31">
+        <v>46</v>
+      </c>
+      <c r="T31">
+        <v>1.08695652173913</v>
+      </c>
+      <c r="U31">
+        <v>0.6578947368421053</v>
       </c>
     </row>
   </sheetData>

--- a/MonsterList.xlsx
+++ b/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="129">
   <si>
     <t>name</t>
   </si>
@@ -88,6 +88,48 @@
     <t>hAND</t>
   </si>
   <si>
+    <t>GreatCat</t>
+  </si>
+  <si>
+    <t>GreatChick</t>
+  </si>
+  <si>
+    <t>Basilisk</t>
+  </si>
+  <si>
+    <t>SilverSkeleton</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>RedSkeleton</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>AstroRed</t>
+  </si>
+  <si>
+    <t>GhostMinionGreen2</t>
+  </si>
+  <si>
+    <t>GhostMinionGreen</t>
+  </si>
+  <si>
+    <t>Astro</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
     <t>GhostMinion</t>
   </si>
   <si>
@@ -121,6 +163,48 @@
     <t>Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "GreatCat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "GreatChick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Basilisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "SilverSkeleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "RedSkeleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Rex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Goblin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "WhiteSkeleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "AstroRed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "GhostMinionGreen2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "GhostMinionGreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Astro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Wolf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "GhostMinion</t>
   </si>
   <si>
@@ -154,9 +238,21 @@
     <t xml:space="preserve"> "Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Skeleton</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "GhostFace</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.25</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 0.5</t>
   </si>
   <si>
@@ -166,9 +262,27 @@
     <t xml:space="preserve"> null</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 50</t>
   </si>
   <si>
+    <t xml:space="preserve"> 40</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 30</t>
   </si>
   <si>
@@ -187,55 +301,94 @@
     <t xml:space="preserve"> 0</t>
   </si>
   <si>
+    <t xml:space="preserve"> "AngryCat</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MonsterAttack1</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MonsterAttack2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "HumanAttack1</t>
   </si>
   <si>
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
+    <t xml:space="preserve"> "PainSqueek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MonsterHurt2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MonsterHurt</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterHurt2</t>
+    <t xml:space="preserve"> "MonsterHurt3</t>
   </si>
   <si>
     <t xml:space="preserve"> "Ow</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.0</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.1</t>
+    <t xml:space="preserve"> 1.05</t>
   </si>
   <si>
     <t xml:space="preserve"> MATERIAL.standard</t>
   </si>
   <si>
+    <t xml:space="preserve"> MATERIAL.greenFluence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MATERIAL.silver</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MATERIAL.gold</t>
   </si>
   <si>
+    <t xml:space="preserve"> MATERIAL.redShine</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MATERIAL.standardShine</t>
   </si>
   <si>
     <t xml:space="preserve"> MATERIAL.greenShine</t>
   </si>
   <si>
-    <t xml:space="preserve"> MATERIAL.redShine</t>
+    <t xml:space="preserve"> 5</t>
   </si>
   <si>
     <t xml:space="preserve"> 3</t>
   </si>
   <si>
+    <t xml:space="preserve"> 2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> true</t>
   </si>
   <si>
     <t xml:space="preserve"> 7</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5</t>
+    <t xml:space="preserve"> 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6</t>
   </si>
   <si>
     <t xml:space="preserve"> Missile</t>
@@ -605,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,73 +843,55 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I2">
+        <v>60</v>
+      </c>
+      <c r="J2">
         <v>30</v>
       </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" t="s">
+        <v>110</v>
+      </c>
+      <c r="V2">
         <v>60</v>
       </c>
-      <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" t="s">
-        <v>76</v>
-      </c>
-      <c r="V2">
-        <v>45</v>
-      </c>
       <c r="W2">
-        <v>1.111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="X2">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="Y2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -764,55 +899,55 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
         <v>25</v>
       </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="V3">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W3">
-        <v>0.8571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y3">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -820,55 +955,55 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="V4">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="W4">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="X4">
-        <v>0.625</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="Y4">
-        <v>0.7142857142857143</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -876,73 +1011,55 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
       <c r="G5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" t="s">
-        <v>74</v>
-      </c>
-      <c r="U5" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="V5">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="W5">
-        <v>1.25</v>
+        <v>1.046511627906977</v>
       </c>
       <c r="X5">
-        <v>0.851063829787234</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="Y5">
-        <v>0.46875</v>
+        <v>0.5813953488372093</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -950,55 +1067,76 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>113</v>
+      </c>
+      <c r="P6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" t="s">
+        <v>125</v>
+      </c>
+      <c r="U6" t="s">
+        <v>127</v>
       </c>
       <c r="V6">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="X6">
-        <v>0.5714285714285714</v>
+        <v>0.6802721088435374</v>
       </c>
       <c r="Y6">
-        <v>0.75</v>
+        <v>0.5154639175257731</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1006,55 +1144,55 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="V7">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="W7">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.5</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Y7">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1062,73 +1200,73 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J8">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="R8" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="S8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="T8" t="s">
+        <v>125</v>
+      </c>
+      <c r="U8" t="s">
+        <v>127</v>
+      </c>
+      <c r="V8">
         <v>75</v>
       </c>
-      <c r="U8" t="s">
-        <v>77</v>
-      </c>
-      <c r="V8">
-        <v>20</v>
-      </c>
       <c r="W8">
-        <v>1.25</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="X8">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="Y8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1136,55 +1274,73 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>110</v>
+      </c>
+      <c r="P9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" t="s">
+        <v>123</v>
+      </c>
+      <c r="T9" t="s">
+        <v>125</v>
+      </c>
+      <c r="U9" t="s">
+        <v>127</v>
       </c>
       <c r="V9">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="X9">
-        <v>0.5555555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="Y9">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1192,55 +1348,55 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="W10">
-        <v>0.6</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="X10">
-        <v>0.3333333333333333</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1248,58 +1404,73 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" t="s">
+        <v>117</v>
+      </c>
+      <c r="S11" t="s">
+        <v>124</v>
+      </c>
+      <c r="T11" t="s">
+        <v>126</v>
+      </c>
+      <c r="U11" t="s">
+        <v>128</v>
+      </c>
+      <c r="V11">
         <v>59</v>
       </c>
-      <c r="M11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" t="s">
-        <v>69</v>
-      </c>
-      <c r="V11">
-        <v>3</v>
-      </c>
       <c r="W11">
-        <v>1</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="X11">
-        <v>0.6</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="Y11">
-        <v>0.6666666666666666</v>
+        <v>0.711864406779661</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1307,57 +1478,952 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>110</v>
+      </c>
+      <c r="P12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" t="s">
+        <v>122</v>
+      </c>
+      <c r="S12" t="s">
+        <v>117</v>
+      </c>
+      <c r="T12" t="s">
+        <v>125</v>
+      </c>
+      <c r="U12" t="s">
+        <v>127</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="X12">
+        <v>0.6</v>
+      </c>
+      <c r="Y12">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>60</v>
+      </c>
+      <c r="K13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" t="s">
+        <v>122</v>
+      </c>
+      <c r="S13" t="s">
+        <v>117</v>
+      </c>
+      <c r="T13" t="s">
+        <v>126</v>
+      </c>
+      <c r="U13" t="s">
+        <v>128</v>
+      </c>
+      <c r="V13">
+        <v>60</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0.6</v>
+      </c>
+      <c r="Y13">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" t="s">
+        <v>117</v>
+      </c>
+      <c r="S14" t="s">
+        <v>124</v>
+      </c>
+      <c r="T14" t="s">
+        <v>125</v>
+      </c>
+      <c r="U14" t="s">
+        <v>127</v>
+      </c>
+      <c r="V14">
+        <v>57</v>
+      </c>
+      <c r="W14">
+        <v>0.7017543859649122</v>
+      </c>
+      <c r="X14">
+        <v>0.4347826086956522</v>
+      </c>
+      <c r="Y14">
+        <v>0.6140350877192983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" t="s">
+        <v>110</v>
+      </c>
+      <c r="V15">
+        <v>50</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0.625</v>
+      </c>
+      <c r="Y15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" t="s">
+        <v>122</v>
+      </c>
+      <c r="S16" t="s">
+        <v>117</v>
+      </c>
+      <c r="T16" t="s">
+        <v>125</v>
+      </c>
+      <c r="U16" t="s">
+        <v>127</v>
+      </c>
+      <c r="V16">
+        <v>45</v>
+      </c>
+      <c r="W16">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="X16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y16">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" t="s">
+        <v>110</v>
+      </c>
+      <c r="V17">
+        <v>35</v>
+      </c>
+      <c r="W17">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X17">
         <v>0.5</v>
       </c>
-      <c r="Y12">
+      <c r="Y17">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" t="s">
+        <v>113</v>
+      </c>
+      <c r="V18">
+        <v>28</v>
+      </c>
+      <c r="W18">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="X18">
+        <v>0.625</v>
+      </c>
+      <c r="Y18">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" t="s">
+        <v>104</v>
+      </c>
+      <c r="N19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" t="s">
+        <v>93</v>
+      </c>
+      <c r="S19" t="s">
+        <v>118</v>
+      </c>
+      <c r="T19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U19" t="s">
+        <v>127</v>
+      </c>
+      <c r="V19">
+        <v>32</v>
+      </c>
+      <c r="W19">
+        <v>1.25</v>
+      </c>
+      <c r="X19">
+        <v>0.851063829787234</v>
+      </c>
+      <c r="Y19">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" t="s">
+        <v>115</v>
+      </c>
+      <c r="V20">
+        <v>20</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Y20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21" t="s">
+        <v>107</v>
+      </c>
+      <c r="O21" t="s">
+        <v>110</v>
+      </c>
+      <c r="V21">
+        <v>18</v>
+      </c>
+      <c r="W21">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>120</v>
+      </c>
+      <c r="R22" t="s">
+        <v>121</v>
+      </c>
+      <c r="S22" t="s">
+        <v>117</v>
+      </c>
+      <c r="T22" t="s">
+        <v>126</v>
+      </c>
+      <c r="U22" t="s">
+        <v>128</v>
+      </c>
+      <c r="V22">
+        <v>20</v>
+      </c>
+      <c r="W22">
+        <v>1.25</v>
+      </c>
+      <c r="X22">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="Y22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" t="s">
+        <v>102</v>
+      </c>
+      <c r="N23" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23">
+        <v>10</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y23">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" t="s">
+        <v>116</v>
+      </c>
+      <c r="V24">
+        <v>10</v>
+      </c>
+      <c r="W24">
+        <v>0.6</v>
+      </c>
+      <c r="X24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" t="s">
+        <v>114</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0.6</v>
+      </c>
+      <c r="Y25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" t="s">
+        <v>108</v>
+      </c>
+      <c r="O26" t="s">
+        <v>110</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0.5</v>
+      </c>
+      <c r="Y26">
         <v>1</v>
       </c>
     </row>
